--- a/observations/orbit_plans/mtp059/nomad_mtp059_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp059/nomad_mtp059_plan_generic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp059\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC601DF5-D4E3-47DD-88C8-BF26F3C83EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE533264-A02D-4A9D-9144-D2FC7E6FBE10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,9 +778,6 @@
     <t>2022 OCT 13 12:41:05</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;mergedMatch:TIANWEN1; </t>
-  </si>
-  <si>
     <t>6SUBD CO2 H2O #12</t>
   </si>
   <si>
@@ -1673,6 +1670,9 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;grazingMatch:TIANWEN1; </t>
   </si>
 </sst>
 </file>
@@ -2022,16 +2022,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>14</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>14</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>14</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>14</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>14</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>14</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>14</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>14</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>14</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>14</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>14</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>14</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>14</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>14</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>14</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>5</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>5</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="I147" t="s">
         <v>8</v>
@@ -4245,18 +4245,18 @@
         <v>251</v>
       </c>
       <c r="M147" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C148" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D148" t="s">
         <v>250</v>
@@ -4265,61 +4265,61 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
+        <v>253</v>
+      </c>
+      <c r="M148" t="s">
         <v>254</v>
       </c>
-      <c r="M148" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D149" t="s">
         <v>250</v>
       </c>
       <c r="H149" t="s">
+        <v>256</v>
+      </c>
+      <c r="I149" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" t="s">
         <v>257</v>
       </c>
-      <c r="I149" t="s">
-        <v>8</v>
-      </c>
-      <c r="L149" t="s">
+      <c r="M149" t="s">
         <v>258</v>
       </c>
-      <c r="M149" t="s">
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>8</v>
+      </c>
+      <c r="L150" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>14</v>
-      </c>
-      <c r="I150" t="s">
-        <v>8</v>
-      </c>
-      <c r="L150" t="s">
-        <v>260</v>
-      </c>
       <c r="M150" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C151" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D151" t="s">
         <v>250</v>
@@ -4328,44 +4328,44 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
+        <v>260</v>
+      </c>
+      <c r="M151" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>8</v>
+      </c>
+      <c r="L152" t="s">
         <v>261</v>
       </c>
-      <c r="M151" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>8</v>
-      </c>
-      <c r="L152" t="s">
-        <v>262</v>
-      </c>
       <c r="M152" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C153" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D153" t="s">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G153" t="s">
         <v>6</v>
@@ -4374,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M153" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4391,30 +4391,30 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M154" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D155" t="s">
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G155" t="s">
         <v>6</v>
@@ -4423,30 +4423,30 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
+        <v>266</v>
+      </c>
+      <c r="M155" t="s">
         <v>267</v>
       </c>
-      <c r="M155" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D156" t="s">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G156" t="s">
         <v>6</v>
@@ -4455,13 +4455,13 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M156" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M157" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>14</v>
       </c>
@@ -4486,30 +4486,30 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M158" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G159" t="s">
         <v>6</v>
@@ -4518,93 +4518,93 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
+        <v>271</v>
+      </c>
+      <c r="M159" t="s">
         <v>272</v>
       </c>
-      <c r="M159" t="s">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>8</v>
+      </c>
+      <c r="L160" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>14</v>
-      </c>
-      <c r="I160" t="s">
-        <v>8</v>
-      </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>274</v>
       </c>
-      <c r="M160" t="s">
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>8</v>
+      </c>
+      <c r="L161" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>14</v>
-      </c>
-      <c r="I161" t="s">
-        <v>8</v>
-      </c>
-      <c r="L161" t="s">
-        <v>276</v>
-      </c>
       <c r="M161" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G162" t="s">
         <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I162" t="s">
         <v>8</v>
       </c>
       <c r="L162" t="s">
+        <v>276</v>
+      </c>
+      <c r="M162" t="s">
         <v>277</v>
       </c>
-      <c r="M162" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D163" t="s">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G163" t="s">
         <v>6</v>
@@ -4613,44 +4613,44 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
+        <v>278</v>
+      </c>
+      <c r="M163" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>8</v>
+      </c>
+      <c r="L164" t="s">
         <v>279</v>
       </c>
-      <c r="M163" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>14</v>
-      </c>
-      <c r="I164" t="s">
-        <v>8</v>
-      </c>
-      <c r="L164" t="s">
-        <v>280</v>
-      </c>
       <c r="M164" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F165" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G165" t="s">
         <v>6</v>
@@ -4659,13 +4659,13 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M165" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4676,30 +4676,30 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
+        <v>281</v>
+      </c>
+      <c r="M166" t="s">
         <v>282</v>
       </c>
-      <c r="M166" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D167" t="s">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F167" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G167" t="s">
         <v>6</v>
@@ -4708,30 +4708,30 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M167" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D168" t="s">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G168" t="s">
         <v>6</v>
@@ -4740,150 +4740,150 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
+        <v>284</v>
+      </c>
+      <c r="M168" t="s">
         <v>285</v>
       </c>
-      <c r="M168" t="s">
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>8</v>
+      </c>
+      <c r="L169" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>14</v>
-      </c>
-      <c r="I169" t="s">
-        <v>8</v>
-      </c>
-      <c r="L169" t="s">
+      <c r="M169" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>8</v>
+      </c>
+      <c r="L170" t="s">
         <v>287</v>
       </c>
-      <c r="M169" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>14</v>
-      </c>
-      <c r="I170" t="s">
-        <v>8</v>
-      </c>
-      <c r="L170" t="s">
+      <c r="M170" t="s">
         <v>288</v>
       </c>
-      <c r="M170" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F171" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G171" t="s">
         <v>6</v>
       </c>
       <c r="H171" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I171" t="s">
         <v>8</v>
       </c>
       <c r="L171" t="s">
+        <v>289</v>
+      </c>
+      <c r="M171" t="s">
         <v>290</v>
       </c>
-      <c r="M171" t="s">
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="L172" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>14</v>
-      </c>
-      <c r="L172" t="s">
+      <c r="M172" t="s">
         <v>292</v>
       </c>
-      <c r="M172" t="s">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>8</v>
+      </c>
+      <c r="L173" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>14</v>
-      </c>
-      <c r="I173" t="s">
-        <v>8</v>
-      </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>8</v>
+      </c>
+      <c r="L174" t="s">
         <v>294</v>
       </c>
-      <c r="M173" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>14</v>
-      </c>
-      <c r="I174" t="s">
-        <v>8</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>295</v>
       </c>
-      <c r="M174" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D175" t="s">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G175" t="s">
         <v>6</v>
       </c>
       <c r="H175" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I175" t="s">
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M175" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>14</v>
       </c>
@@ -4891,30 +4891,30 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M176" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D177" t="s">
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F177" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G177" t="s">
         <v>6</v>
@@ -4923,84 +4923,84 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
+        <v>299</v>
+      </c>
+      <c r="M177" t="s">
         <v>300</v>
       </c>
-      <c r="M177" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C178" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D178" t="s">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F178" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G178" t="s">
         <v>6</v>
       </c>
       <c r="H178" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I178" t="s">
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M178" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>14</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>14</v>
       </c>
       <c r="L180" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M180" s="1" t="s">
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>8</v>
+      </c>
+      <c r="L181" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>14</v>
-      </c>
-      <c r="I181" t="s">
-        <v>8</v>
-      </c>
-      <c r="L181" t="s">
-        <v>306</v>
       </c>
       <c r="M181" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5008,48 +5008,48 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
+        <v>306</v>
+      </c>
+      <c r="M182" t="s">
         <v>307</v>
       </c>
-      <c r="M182" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F183" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G183" t="s">
         <v>6</v>
       </c>
       <c r="H183" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I183" t="s">
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M183" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>14</v>
       </c>
@@ -5057,30 +5057,30 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M184" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D185" t="s">
         <v>3</v>
       </c>
       <c r="E185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F185" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G185" t="s">
         <v>6</v>
@@ -5089,93 +5089,93 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
+        <v>310</v>
+      </c>
+      <c r="M185" t="s">
         <v>311</v>
       </c>
-      <c r="M185" t="s">
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>8</v>
+      </c>
+      <c r="L186" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>14</v>
-      </c>
-      <c r="I186" t="s">
-        <v>8</v>
-      </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>8</v>
+      </c>
+      <c r="L187" t="s">
         <v>313</v>
       </c>
-      <c r="M186" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>14</v>
-      </c>
-      <c r="I187" t="s">
-        <v>8</v>
-      </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>314</v>
       </c>
-      <c r="M187" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D188" t="s">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F188" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G188" t="s">
         <v>6</v>
       </c>
       <c r="H188" t="s">
+        <v>315</v>
+      </c>
+      <c r="I188" t="s">
+        <v>8</v>
+      </c>
+      <c r="L188" t="s">
         <v>316</v>
       </c>
-      <c r="I188" t="s">
-        <v>8</v>
-      </c>
-      <c r="L188" t="s">
+      <c r="M188" t="s">
         <v>317</v>
       </c>
-      <c r="M188" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G189" t="s">
         <v>6</v>
@@ -5184,47 +5184,47 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
+        <v>318</v>
+      </c>
+      <c r="M189" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="H190" t="s">
         <v>319</v>
       </c>
-      <c r="M189" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>3</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
+        <v>8</v>
+      </c>
+      <c r="L190" t="s">
         <v>320</v>
       </c>
-      <c r="I190" t="s">
-        <v>8</v>
-      </c>
-      <c r="L190" t="s">
+      <c r="M190" t="s">
         <v>321</v>
       </c>
-      <c r="M190" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C191" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="E191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G191" t="s">
         <v>6</v>
@@ -5233,27 +5233,27 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
+        <v>322</v>
+      </c>
+      <c r="M191" t="s">
         <v>323</v>
       </c>
-      <c r="M191" t="s">
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>8</v>
+      </c>
+      <c r="L192" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>14</v>
-      </c>
-      <c r="I192" t="s">
-        <v>8</v>
-      </c>
-      <c r="L192" t="s">
-        <v>325</v>
-      </c>
       <c r="M192" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5264,30 +5264,30 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M193" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D194" t="s">
         <v>3</v>
       </c>
       <c r="E194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G194" t="s">
         <v>6</v>
@@ -5296,44 +5296,44 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
+        <v>326</v>
+      </c>
+      <c r="M194" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>8</v>
+      </c>
+      <c r="L195" t="s">
         <v>327</v>
       </c>
-      <c r="M194" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>14</v>
-      </c>
-      <c r="I195" t="s">
-        <v>8</v>
-      </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
         <v>328</v>
       </c>
-      <c r="M195" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D196" t="s">
         <v>3</v>
       </c>
       <c r="E196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G196" t="s">
         <v>6</v>
@@ -5342,61 +5342,61 @@
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M196" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3</v>
       </c>
       <c r="H197" t="s">
+        <v>330</v>
+      </c>
+      <c r="I197" t="s">
+        <v>8</v>
+      </c>
+      <c r="L197" t="s">
         <v>331</v>
       </c>
-      <c r="I197" t="s">
-        <v>8</v>
-      </c>
-      <c r="L197" t="s">
+      <c r="M197" t="s">
         <v>332</v>
       </c>
-      <c r="M197" t="s">
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>8</v>
+      </c>
+      <c r="L198" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>14</v>
-      </c>
-      <c r="I198" t="s">
-        <v>8</v>
-      </c>
-      <c r="L198" t="s">
-        <v>334</v>
       </c>
       <c r="M198" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C199" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D199" t="s">
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G199" t="s">
         <v>6</v>
@@ -5405,79 +5405,79 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
+        <v>334</v>
+      </c>
+      <c r="M199" t="s">
         <v>335</v>
       </c>
-      <c r="M199" t="s">
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>8</v>
+      </c>
+      <c r="L200" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>14</v>
-      </c>
-      <c r="I200" t="s">
-        <v>8</v>
-      </c>
-      <c r="L200" t="s">
-        <v>337</v>
-      </c>
       <c r="M200" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C201" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D201" t="s">
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F201" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G201" t="s">
         <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I201" t="s">
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M201" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C202" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D202" t="s">
         <v>3</v>
       </c>
       <c r="E202" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F202" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G202" t="s">
         <v>6</v>
@@ -5486,58 +5486,58 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
+        <v>339</v>
+      </c>
+      <c r="M202" t="s">
         <v>340</v>
       </c>
-      <c r="M202" t="s">
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>8</v>
+      </c>
+      <c r="L203" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>14</v>
-      </c>
-      <c r="I203" t="s">
-        <v>8</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="M203" t="s">
         <v>342</v>
       </c>
-      <c r="M203" t="s">
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>8</v>
+      </c>
+      <c r="L204" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>14</v>
-      </c>
-      <c r="I204" t="s">
-        <v>8</v>
-      </c>
-      <c r="L204" t="s">
-        <v>344</v>
-      </c>
       <c r="M204" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C205" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D205" t="s">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F205" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G205" t="s">
         <v>6</v>
@@ -5546,13 +5546,13 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M205" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3</v>
       </c>
@@ -5563,44 +5563,44 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
+        <v>345</v>
+      </c>
+      <c r="M206" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>8</v>
+      </c>
+      <c r="L207" t="s">
         <v>346</v>
       </c>
-      <c r="M206" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>14</v>
-      </c>
-      <c r="I207" t="s">
-        <v>8</v>
-      </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>347</v>
       </c>
-      <c r="M207" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C208" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D208" t="s">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F208" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G208" t="s">
         <v>6</v>
@@ -5609,13 +5609,13 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
+        <v>348</v>
+      </c>
+      <c r="M208" t="s">
         <v>349</v>
       </c>
-      <c r="M208" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3</v>
       </c>
@@ -5626,13 +5626,13 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M209" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>14</v>
       </c>
@@ -5640,30 +5640,30 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M210" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211" t="s">
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G211" t="s">
         <v>6</v>
@@ -5672,30 +5672,30 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M211" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C212" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D212" t="s">
         <v>3</v>
       </c>
       <c r="E212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F212" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G212" t="s">
         <v>6</v>
@@ -5704,13 +5704,13 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
+        <v>353</v>
+      </c>
+      <c r="M212" t="s">
         <v>354</v>
       </c>
-      <c r="M212" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5721,30 +5721,30 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M213" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C214" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D214" t="s">
         <v>3</v>
       </c>
       <c r="E214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F214" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G214" t="s">
         <v>6</v>
@@ -5753,13 +5753,13 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M214" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>14</v>
       </c>
@@ -5767,13 +5767,13 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
+        <v>357</v>
+      </c>
+      <c r="M215" t="s">
         <v>358</v>
       </c>
-      <c r="M215" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3</v>
       </c>
@@ -5784,30 +5784,30 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M216" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C217" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D217" t="s">
         <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F217" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G217" t="s">
         <v>6</v>
@@ -5816,13 +5816,13 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M217" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3</v>
       </c>
@@ -5833,30 +5833,30 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M218" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C219" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D219" t="s">
         <v>3</v>
       </c>
       <c r="E219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G219" t="s">
         <v>6</v>
@@ -5865,13 +5865,13 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M219" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>14</v>
       </c>
@@ -5879,30 +5879,30 @@
         <v>8</v>
       </c>
       <c r="L220" t="s">
+        <v>363</v>
+      </c>
+      <c r="M220" t="s">
         <v>364</v>
       </c>
-      <c r="M220" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C221" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D221" t="s">
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G221" t="s">
         <v>6</v>
@@ -5911,35 +5911,35 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
+        <v>365</v>
+      </c>
+      <c r="M221" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>14</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="M221" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>14</v>
-      </c>
-      <c r="L222" s="1" t="s">
+      <c r="M222" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>14</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="M222" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>14</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -5947,79 +5947,79 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
+        <v>368</v>
+      </c>
+      <c r="M224" t="s">
         <v>369</v>
       </c>
-      <c r="M224" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C225" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D225" t="s">
         <v>3</v>
       </c>
       <c r="E225" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F225" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G225" t="s">
         <v>6</v>
       </c>
       <c r="H225" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I225" t="s">
         <v>8</v>
       </c>
       <c r="L225" t="s">
+        <v>370</v>
+      </c>
+      <c r="M225" t="s">
         <v>371</v>
       </c>
-      <c r="M225" t="s">
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>8</v>
+      </c>
+      <c r="L226" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>14</v>
-      </c>
-      <c r="I226" t="s">
-        <v>8</v>
-      </c>
-      <c r="L226" t="s">
+      <c r="M226" t="s">
         <v>373</v>
       </c>
-      <c r="M226" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D227" t="s">
         <v>3</v>
       </c>
       <c r="E227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G227" t="s">
         <v>6</v>
@@ -6028,30 +6028,30 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M227" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C228" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D228" t="s">
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G228" t="s">
         <v>6</v>
@@ -6060,27 +6060,27 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
+        <v>375</v>
+      </c>
+      <c r="M228" t="s">
         <v>376</v>
       </c>
-      <c r="M228" t="s">
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>8</v>
+      </c>
+      <c r="L229" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>14</v>
-      </c>
-      <c r="I229" t="s">
-        <v>8</v>
-      </c>
-      <c r="L229" t="s">
-        <v>378</v>
-      </c>
       <c r="M229" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3</v>
       </c>
@@ -6091,30 +6091,30 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M230" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D231" t="s">
         <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G231" t="s">
         <v>6</v>
@@ -6123,13 +6123,13 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M231" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -6140,13 +6140,13 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M232" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -6154,70 +6154,70 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M233" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C234" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D234" t="s">
         <v>3</v>
       </c>
       <c r="H234" t="s">
+        <v>382</v>
+      </c>
+      <c r="I234" t="s">
+        <v>8</v>
+      </c>
+      <c r="L234" t="s">
         <v>383</v>
       </c>
-      <c r="I234" t="s">
-        <v>8</v>
-      </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>384</v>
       </c>
-      <c r="M234" t="s">
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>14</v>
+      </c>
+      <c r="I235" t="s">
+        <v>8</v>
+      </c>
+      <c r="L235" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>14</v>
-      </c>
-      <c r="I235" t="s">
-        <v>8</v>
-      </c>
-      <c r="L235" t="s">
-        <v>386</v>
       </c>
       <c r="M235" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C236" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D236" t="s">
         <v>3</v>
       </c>
       <c r="E236" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F236" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G236" t="s">
         <v>6</v>
@@ -6226,13 +6226,13 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M236" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6240,30 +6240,30 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
+        <v>387</v>
+      </c>
+      <c r="M237" t="s">
         <v>388</v>
       </c>
-      <c r="M237" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D238" t="s">
         <v>3</v>
       </c>
       <c r="E238" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F238" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G238" t="s">
         <v>6</v>
@@ -6272,107 +6272,107 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
+        <v>389</v>
+      </c>
+      <c r="M238" t="s">
         <v>390</v>
       </c>
-      <c r="M238" t="s">
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>8</v>
+      </c>
+      <c r="L239" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>14</v>
-      </c>
-      <c r="I239" t="s">
-        <v>8</v>
-      </c>
-      <c r="L239" t="s">
+      <c r="M239" t="s">
         <v>392</v>
       </c>
-      <c r="M239" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C240" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D240" t="s">
         <v>3</v>
       </c>
       <c r="E240" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F240" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G240" t="s">
         <v>6</v>
       </c>
       <c r="H240" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I240" t="s">
         <v>8</v>
       </c>
       <c r="L240" t="s">
+        <v>393</v>
+      </c>
+      <c r="M240" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>8</v>
+      </c>
+      <c r="L241" t="s">
         <v>394</v>
       </c>
-      <c r="M240" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>14</v>
-      </c>
-      <c r="I241" t="s">
-        <v>8</v>
-      </c>
-      <c r="L241" t="s">
+      <c r="M241" t="s">
         <v>395</v>
       </c>
-      <c r="M241" t="s">
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>14</v>
+      </c>
+      <c r="I242" t="s">
+        <v>8</v>
+      </c>
+      <c r="L242" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>14</v>
-      </c>
-      <c r="I242" t="s">
-        <v>8</v>
-      </c>
-      <c r="L242" t="s">
-        <v>397</v>
-      </c>
       <c r="M242" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C243" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D243" t="s">
         <v>3</v>
       </c>
       <c r="E243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G243" t="s">
         <v>6</v>
@@ -6381,21 +6381,21 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
+        <v>397</v>
+      </c>
+      <c r="M243" t="s">
         <v>398</v>
       </c>
-      <c r="M243" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
       <c r="E244" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F244" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G244" t="s">
         <v>6</v>
@@ -6404,38 +6404,38 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M244" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>28</v>
       </c>
       <c r="H245" t="s">
+        <v>400</v>
+      </c>
+      <c r="I245" t="s">
         <v>401</v>
       </c>
-      <c r="I245" t="s">
+      <c r="L245" t="s">
         <v>402</v>
       </c>
-      <c r="L245" t="s">
+      <c r="M245" t="s">
         <v>403</v>
       </c>
-      <c r="M245" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F246" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G246" t="s">
         <v>6</v>
@@ -6444,47 +6444,47 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
+        <v>404</v>
+      </c>
+      <c r="M246" t="s">
         <v>405</v>
       </c>
-      <c r="M246" t="s">
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="H247" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>3</v>
-      </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
+        <v>8</v>
+      </c>
+      <c r="L247" t="s">
         <v>407</v>
       </c>
-      <c r="I247" t="s">
-        <v>8</v>
-      </c>
-      <c r="L247" t="s">
+      <c r="M247" t="s">
         <v>408</v>
       </c>
-      <c r="M247" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C248" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D248" t="s">
         <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F248" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G248" t="s">
         <v>6</v>
@@ -6493,13 +6493,13 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M248" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -6507,30 +6507,30 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M249" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D250" t="s">
         <v>3</v>
       </c>
       <c r="E250" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F250" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G250" t="s">
         <v>6</v>
@@ -6539,79 +6539,79 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
+        <v>411</v>
+      </c>
+      <c r="M250" t="s">
         <v>412</v>
       </c>
-      <c r="M250" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D251" t="s">
         <v>3</v>
       </c>
       <c r="E251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F251" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G251" t="s">
         <v>6</v>
       </c>
       <c r="H251" t="s">
+        <v>413</v>
+      </c>
+      <c r="I251" t="s">
+        <v>8</v>
+      </c>
+      <c r="L251" t="s">
         <v>414</v>
       </c>
-      <c r="I251" t="s">
-        <v>8</v>
-      </c>
-      <c r="L251" t="s">
+      <c r="M251" t="s">
         <v>415</v>
       </c>
-      <c r="M251" t="s">
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>8</v>
+      </c>
+      <c r="L252" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>14</v>
-      </c>
-      <c r="I252" t="s">
-        <v>8</v>
-      </c>
-      <c r="L252" t="s">
-        <v>417</v>
       </c>
       <c r="M252" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D253" t="s">
         <v>3</v>
       </c>
       <c r="E253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F253" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G253" t="s">
         <v>6</v>
@@ -6620,61 +6620,61 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
+        <v>417</v>
+      </c>
+      <c r="M253" t="s">
         <v>418</v>
       </c>
-      <c r="M253" t="s">
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>14</v>
+      </c>
+      <c r="I254" t="s">
+        <v>8</v>
+      </c>
+      <c r="L254" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>14</v>
-      </c>
-      <c r="I254" t="s">
-        <v>8</v>
-      </c>
-      <c r="L254" t="s">
-        <v>420</v>
-      </c>
       <c r="M254" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>28</v>
       </c>
       <c r="B255" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C255" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D255" t="s">
         <v>3</v>
       </c>
       <c r="H255" t="s">
+        <v>400</v>
+      </c>
+      <c r="I255" t="s">
         <v>401</v>
       </c>
-      <c r="I255" t="s">
-        <v>402</v>
-      </c>
       <c r="L255" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M255" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F256" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G256" t="s">
         <v>6</v>
@@ -6683,35 +6683,35 @@
         <v>8</v>
       </c>
       <c r="L256" t="s">
+        <v>421</v>
+      </c>
+      <c r="M256" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>14</v>
+      </c>
+      <c r="L257" t="s">
         <v>422</v>
-      </c>
-      <c r="M256" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>14</v>
-      </c>
-      <c r="L257" t="s">
-        <v>423</v>
       </c>
       <c r="M257" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M258" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -6722,44 +6722,44 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
+        <v>425</v>
+      </c>
+      <c r="M259" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s">
+        <v>8</v>
+      </c>
+      <c r="L260" t="s">
         <v>426</v>
       </c>
-      <c r="M259" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>14</v>
-      </c>
-      <c r="I260" t="s">
-        <v>8</v>
-      </c>
-      <c r="L260" t="s">
-        <v>427</v>
-      </c>
       <c r="M260" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D261" t="s">
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G261" t="s">
         <v>6</v>
@@ -6768,44 +6768,44 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
+        <v>427</v>
+      </c>
+      <c r="M261" t="s">
         <v>428</v>
       </c>
-      <c r="M261" t="s">
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s">
+        <v>8</v>
+      </c>
+      <c r="L262" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>14</v>
-      </c>
-      <c r="I262" t="s">
-        <v>8</v>
-      </c>
-      <c r="L262" t="s">
-        <v>430</v>
-      </c>
       <c r="M262" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D263" t="s">
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G263" t="s">
         <v>6</v>
@@ -6814,30 +6814,30 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
+        <v>430</v>
+      </c>
+      <c r="M263" t="s">
         <v>431</v>
       </c>
-      <c r="M263" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -6846,13 +6846,13 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M264" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3</v>
       </c>
@@ -6863,30 +6863,30 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M265" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C266" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G266" t="s">
         <v>6</v>
@@ -6895,13 +6895,13 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M266" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -6909,30 +6909,30 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M267" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -6941,47 +6941,47 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>436</v>
+      </c>
+      <c r="M268" t="s">
         <v>437</v>
       </c>
-      <c r="M268" t="s">
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="H269" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>3</v>
-      </c>
-      <c r="H269" t="s">
+      <c r="I269" t="s">
+        <v>8</v>
+      </c>
+      <c r="L269" t="s">
         <v>439</v>
       </c>
-      <c r="I269" t="s">
-        <v>8</v>
-      </c>
-      <c r="L269" t="s">
+      <c r="M269" t="s">
         <v>440</v>
       </c>
-      <c r="M269" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D270" t="s">
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G270" t="s">
         <v>6</v>
@@ -6990,30 +6990,30 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M270" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D271" t="s">
         <v>3</v>
       </c>
       <c r="E271" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F271" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G271" t="s">
         <v>6</v>
@@ -7022,44 +7022,44 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
+        <v>442</v>
+      </c>
+      <c r="M271" t="s">
         <v>443</v>
       </c>
-      <c r="M271" t="s">
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s">
+        <v>8</v>
+      </c>
+      <c r="L272" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>14</v>
-      </c>
-      <c r="I272" t="s">
-        <v>8</v>
-      </c>
-      <c r="L272" t="s">
+      <c r="M272" t="s">
         <v>445</v>
       </c>
-      <c r="M272" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C273" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F273" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -7068,13 +7068,13 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M273" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7085,30 +7085,30 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
+        <v>447</v>
+      </c>
+      <c r="M274" t="s">
         <v>448</v>
       </c>
-      <c r="M274" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C275" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F275" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
@@ -7117,79 +7117,79 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
+        <v>449</v>
+      </c>
+      <c r="M275" t="s">
         <v>450</v>
       </c>
-      <c r="M275" t="s">
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>8</v>
+      </c>
+      <c r="L276" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>14</v>
-      </c>
-      <c r="I276" t="s">
-        <v>8</v>
-      </c>
-      <c r="L276" t="s">
-        <v>452</v>
-      </c>
       <c r="M276" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C277" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F277" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G277" t="s">
         <v>6</v>
       </c>
       <c r="H277" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I277" t="s">
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M277" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C278" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F278" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G278" t="s">
         <v>6</v>
@@ -7198,44 +7198,44 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
+        <v>453</v>
+      </c>
+      <c r="M278" t="s">
         <v>454</v>
       </c>
-      <c r="M278" t="s">
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s">
+        <v>8</v>
+      </c>
+      <c r="L279" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>14</v>
-      </c>
-      <c r="I279" t="s">
-        <v>8</v>
-      </c>
-      <c r="L279" t="s">
-        <v>456</v>
-      </c>
       <c r="M279" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C280" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F280" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G280" t="s">
         <v>6</v>
@@ -7244,27 +7244,27 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
+        <v>456</v>
+      </c>
+      <c r="M280" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s">
+        <v>8</v>
+      </c>
+      <c r="L281" t="s">
         <v>457</v>
       </c>
-      <c r="M280" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>14</v>
-      </c>
-      <c r="I281" t="s">
-        <v>8</v>
-      </c>
-      <c r="L281" t="s">
-        <v>458</v>
-      </c>
       <c r="M281" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3</v>
       </c>
@@ -7275,30 +7275,30 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M282" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C283" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D283" t="s">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F283" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G283" t="s">
         <v>6</v>
@@ -7307,70 +7307,70 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M283" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D284" t="s">
         <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I284" t="s">
         <v>8</v>
       </c>
       <c r="L284" t="s">
+        <v>460</v>
+      </c>
+      <c r="M284" t="s">
         <v>461</v>
       </c>
-      <c r="M284" t="s">
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>14</v>
+      </c>
+      <c r="I285" t="s">
+        <v>8</v>
+      </c>
+      <c r="L285" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>14</v>
-      </c>
-      <c r="I285" t="s">
-        <v>8</v>
-      </c>
-      <c r="L285" t="s">
-        <v>463</v>
       </c>
       <c r="M285" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C286" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F286" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G286" t="s">
         <v>6</v>
@@ -7379,24 +7379,24 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M286" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>14</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7404,30 +7404,30 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
+        <v>465</v>
+      </c>
+      <c r="M288" t="s">
         <v>466</v>
       </c>
-      <c r="M288" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C289" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D289" t="s">
         <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F289" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G289" t="s">
         <v>6</v>
@@ -7436,79 +7436,79 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
+        <v>467</v>
+      </c>
+      <c r="M289" t="s">
         <v>468</v>
       </c>
-      <c r="M289" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C290" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F290" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G290" t="s">
         <v>6</v>
       </c>
       <c r="H290" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I290" t="s">
         <v>8</v>
       </c>
       <c r="L290" t="s">
+        <v>469</v>
+      </c>
+      <c r="M290" t="s">
         <v>470</v>
       </c>
-      <c r="M290" t="s">
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>14</v>
+      </c>
+      <c r="I291" t="s">
+        <v>8</v>
+      </c>
+      <c r="L291" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>14</v>
-      </c>
-      <c r="I291" t="s">
-        <v>8</v>
-      </c>
-      <c r="L291" t="s">
-        <v>472</v>
-      </c>
       <c r="M291" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C292" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F292" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G292" t="s">
         <v>6</v>
@@ -7517,27 +7517,27 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
+        <v>472</v>
+      </c>
+      <c r="M292" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s">
+        <v>8</v>
+      </c>
+      <c r="L293" t="s">
         <v>473</v>
       </c>
-      <c r="M292" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>14</v>
-      </c>
-      <c r="I293" t="s">
-        <v>8</v>
-      </c>
-      <c r="L293" t="s">
-        <v>474</v>
-      </c>
       <c r="M293" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3</v>
       </c>
@@ -7548,30 +7548,30 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
+        <v>474</v>
+      </c>
+      <c r="M294" t="s">
         <v>475</v>
       </c>
-      <c r="M294" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F295" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G295" t="s">
         <v>6</v>
@@ -7580,55 +7580,55 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
+        <v>476</v>
+      </c>
+      <c r="M295" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>14</v>
+      </c>
+      <c r="L296" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="M295" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
-        <v>14</v>
-      </c>
-      <c r="L296" s="1" t="s">
+      <c r="M296" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>14</v>
+      </c>
+      <c r="I297" t="s">
+        <v>8</v>
+      </c>
+      <c r="L297" t="s">
         <v>478</v>
-      </c>
-      <c r="M296" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>14</v>
-      </c>
-      <c r="I297" t="s">
-        <v>8</v>
-      </c>
-      <c r="L297" t="s">
-        <v>479</v>
       </c>
       <c r="M297" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
       <c r="B298" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D298" t="s">
         <v>3</v>
       </c>
       <c r="E298" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F298" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G298" t="s">
         <v>6</v>
@@ -7637,30 +7637,30 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M298" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1</v>
       </c>
       <c r="B299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D299" t="s">
         <v>3</v>
       </c>
       <c r="E299" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F299" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G299" t="s">
         <v>6</v>
@@ -7669,47 +7669,47 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
+        <v>480</v>
+      </c>
+      <c r="M299" t="s">
         <v>481</v>
       </c>
-      <c r="M299" t="s">
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="H300" t="s">
+        <v>330</v>
+      </c>
+      <c r="I300" t="s">
+        <v>8</v>
+      </c>
+      <c r="L300" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>3</v>
-      </c>
-      <c r="H300" t="s">
-        <v>331</v>
-      </c>
-      <c r="I300" t="s">
-        <v>8</v>
-      </c>
-      <c r="L300" t="s">
+      <c r="M300" t="s">
         <v>483</v>
       </c>
-      <c r="M300" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C301" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F301" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G301" t="s">
         <v>6</v>
@@ -7718,13 +7718,13 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
+        <v>484</v>
+      </c>
+      <c r="M301" t="s">
         <v>485</v>
       </c>
-      <c r="M301" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3</v>
       </c>
@@ -7735,13 +7735,13 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M302" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>14</v>
       </c>
@@ -7749,30 +7749,30 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M303" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1</v>
       </c>
       <c r="B304" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C304" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D304" t="s">
         <v>3</v>
       </c>
       <c r="E304" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F304" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G304" t="s">
         <v>6</v>
@@ -7781,52 +7781,52 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
+        <v>488</v>
+      </c>
+      <c r="M304" t="s">
         <v>489</v>
       </c>
-      <c r="M304" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>47</v>
       </c>
       <c r="J305" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K305" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K305" s="1" t="s">
+      <c r="L305" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L305" s="1" t="s">
+      <c r="M305" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s">
+        <v>8</v>
+      </c>
+      <c r="L306" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>14</v>
-      </c>
-      <c r="I306" t="s">
-        <v>8</v>
-      </c>
-      <c r="L306" t="s">
-        <v>495</v>
       </c>
       <c r="M306" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F307" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G307" t="s">
         <v>6</v>
@@ -7835,48 +7835,48 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
+        <v>495</v>
+      </c>
+      <c r="M307" t="s">
         <v>496</v>
       </c>
-      <c r="M307" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
       <c r="B308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C308" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D308" t="s">
         <v>3</v>
       </c>
       <c r="E308" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F308" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G308" t="s">
         <v>6</v>
       </c>
       <c r="H308" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I308" t="s">
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M308" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -7884,30 +7884,30 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
+        <v>498</v>
+      </c>
+      <c r="M309" t="s">
         <v>499</v>
       </c>
-      <c r="M309" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
       <c r="B310" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C310" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D310" t="s">
         <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F310" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G310" t="s">
         <v>6</v>
@@ -7916,27 +7916,27 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
+        <v>500</v>
+      </c>
+      <c r="M310" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>14</v>
+      </c>
+      <c r="I311" t="s">
+        <v>8</v>
+      </c>
+      <c r="L311" t="s">
         <v>501</v>
       </c>
-      <c r="M310" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>14</v>
-      </c>
-      <c r="I311" t="s">
-        <v>8</v>
-      </c>
-      <c r="L311" t="s">
+      <c r="M311" t="s">
         <v>502</v>
       </c>
-      <c r="M311" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3</v>
       </c>
@@ -7947,30 +7947,30 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M312" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
       <c r="B313" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C313" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D313" t="s">
         <v>3</v>
       </c>
       <c r="E313" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F313" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G313" t="s">
         <v>6</v>
@@ -7979,30 +7979,30 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
+        <v>504</v>
+      </c>
+      <c r="M313" t="s">
         <v>505</v>
       </c>
-      <c r="M313" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C314" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F314" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
@@ -8011,61 +8011,61 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
+        <v>506</v>
+      </c>
+      <c r="M314" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>14</v>
+      </c>
+      <c r="I315" t="s">
+        <v>8</v>
+      </c>
+      <c r="L315" t="s">
         <v>507</v>
       </c>
-      <c r="M314" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>14</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
-      </c>
-      <c r="L315" t="s">
+      <c r="M315" t="s">
         <v>508</v>
       </c>
-      <c r="M315" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>47</v>
       </c>
       <c r="J316" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K316" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K316" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="L316" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M316" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M316" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C317" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D317" t="s">
         <v>3</v>
       </c>
       <c r="E317" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F317" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G317" t="s">
         <v>6</v>
@@ -8074,13 +8074,13 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M317" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8088,21 +8088,21 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
+        <v>512</v>
+      </c>
+      <c r="M318" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
         <v>513</v>
       </c>
-      <c r="M318" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>1</v>
-      </c>
-      <c r="E319" t="s">
-        <v>514</v>
-      </c>
       <c r="F319" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G319" t="s">
         <v>6</v>
@@ -8111,48 +8111,48 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
+        <v>514</v>
+      </c>
+      <c r="M319" t="s">
         <v>515</v>
       </c>
-      <c r="M319" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C320" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F320" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G320" t="s">
         <v>6</v>
       </c>
       <c r="H320" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I320" t="s">
         <v>8</v>
       </c>
       <c r="L320" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M320" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8160,13 +8160,13 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
+        <v>517</v>
+      </c>
+      <c r="M321" t="s">
         <v>518</v>
       </c>
-      <c r="M321" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3</v>
       </c>
@@ -8177,30 +8177,30 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M322" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C323" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D323" t="s">
         <v>3</v>
       </c>
       <c r="E323" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F323" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G323" t="s">
         <v>6</v>
@@ -8209,13 +8209,13 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M323" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>14</v>
       </c>
@@ -8223,21 +8223,21 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
+        <v>521</v>
+      </c>
+      <c r="M324" t="s">
         <v>522</v>
       </c>
-      <c r="M324" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F325" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G325" t="s">
         <v>6</v>
@@ -8246,13 +8246,13 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
+        <v>523</v>
+      </c>
+      <c r="M325" t="s">
         <v>524</v>
       </c>
-      <c r="M325" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8263,21 +8263,21 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M326" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F327" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G327" t="s">
         <v>6</v>
@@ -8286,58 +8286,58 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
+        <v>526</v>
+      </c>
+      <c r="M327" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" t="s">
+        <v>262</v>
+      </c>
+      <c r="C328" t="s">
+        <v>262</v>
+      </c>
+      <c r="D328" t="s">
+        <v>3</v>
+      </c>
+      <c r="I328" t="s">
+        <v>8</v>
+      </c>
+      <c r="L328" t="s">
         <v>527</v>
       </c>
-      <c r="M327" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>1</v>
-      </c>
-      <c r="B328" t="s">
-        <v>263</v>
-      </c>
-      <c r="C328" t="s">
-        <v>263</v>
-      </c>
-      <c r="D328" t="s">
-        <v>3</v>
-      </c>
-      <c r="I328" t="s">
-        <v>8</v>
-      </c>
-      <c r="L328" t="s">
+      <c r="M328" t="s">
         <v>528</v>
       </c>
-      <c r="M328" t="s">
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>14</v>
+      </c>
+      <c r="I329" t="s">
+        <v>8</v>
+      </c>
+      <c r="L329" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>14</v>
-      </c>
-      <c r="I329" t="s">
-        <v>8</v>
-      </c>
-      <c r="L329" t="s">
-        <v>530</v>
-      </c>
       <c r="M329" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
       <c r="B330" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C330" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D330" t="s">
         <v>3</v>
@@ -8349,78 +8349,78 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
+        <v>530</v>
+      </c>
+      <c r="M330" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>14</v>
+      </c>
+      <c r="I331" t="s">
+        <v>8</v>
+      </c>
+      <c r="L331" t="s">
         <v>531</v>
       </c>
-      <c r="M330" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>14</v>
-      </c>
-      <c r="I331" t="s">
-        <v>8</v>
-      </c>
-      <c r="L331" t="s">
+      <c r="M331" t="s">
         <v>532</v>
       </c>
-      <c r="M331" t="s">
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>14</v>
+      </c>
+      <c r="I332" t="s">
+        <v>8</v>
+      </c>
+      <c r="L332" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>14</v>
-      </c>
-      <c r="I332" t="s">
-        <v>8</v>
-      </c>
-      <c r="L332" t="s">
+      <c r="M332" t="s">
         <v>534</v>
       </c>
-      <c r="M332" t="s">
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>262</v>
+      </c>
+      <c r="C333" t="s">
+        <v>262</v>
+      </c>
+      <c r="D333" t="s">
+        <v>3</v>
+      </c>
+      <c r="I333" t="s">
+        <v>8</v>
+      </c>
+      <c r="L333" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333" t="s">
-        <v>263</v>
-      </c>
-      <c r="C333" t="s">
-        <v>263</v>
-      </c>
-      <c r="D333" t="s">
-        <v>3</v>
-      </c>
-      <c r="I333" t="s">
-        <v>8</v>
-      </c>
-      <c r="L333" t="s">
+      <c r="M333" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>14</v>
+      </c>
+      <c r="I334" t="s">
+        <v>8</v>
+      </c>
+      <c r="L334" t="s">
         <v>536</v>
       </c>
-      <c r="M333" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>14</v>
-      </c>
-      <c r="I334" t="s">
-        <v>8</v>
-      </c>
-      <c r="L334" t="s">
-        <v>537</v>
-      </c>
       <c r="M334" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>3</v>
       </c>
@@ -8431,21 +8431,21 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M335" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
       <c r="B336" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C336" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D336" t="s">
         <v>3</v>
@@ -8454,21 +8454,21 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
+        <v>538</v>
+      </c>
+      <c r="M336" t="s">
         <v>539</v>
       </c>
-      <c r="M336" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F337" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G337" t="s">
         <v>6</v>
@@ -8477,38 +8477,38 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
+        <v>540</v>
+      </c>
+      <c r="M337" t="s">
         <v>541</v>
       </c>
-      <c r="M337" t="s">
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>3</v>
+      </c>
+      <c r="H338" t="s">
+        <v>319</v>
+      </c>
+      <c r="I338" t="s">
+        <v>8</v>
+      </c>
+      <c r="L338" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>3</v>
-      </c>
-      <c r="H338" t="s">
-        <v>320</v>
-      </c>
-      <c r="I338" t="s">
-        <v>8</v>
-      </c>
-      <c r="L338" t="s">
-        <v>543</v>
-      </c>
       <c r="M338" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F339" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G339" t="s">
         <v>6</v>
@@ -8517,13 +8517,13 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
+        <v>543</v>
+      </c>
+      <c r="M339" t="s">
         <v>544</v>
       </c>
-      <c r="M339" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8534,21 +8534,21 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M340" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
       <c r="E341" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F341" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G341" t="s">
         <v>6</v>
@@ -8557,36 +8557,36 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M341" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C342" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
       </c>
       <c r="H342" t="s">
+        <v>547</v>
+      </c>
+      <c r="I342" t="s">
+        <v>8</v>
+      </c>
+      <c r="L342" t="s">
         <v>548</v>
       </c>
-      <c r="I342" t="s">
-        <v>8</v>
-      </c>
-      <c r="L342" t="s">
+      <c r="M342" t="s">
         <v>549</v>
-      </c>
-      <c r="M342" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
